--- a/Tables/Tables.xlsx
+++ b/Tables/Tables.xlsx
@@ -1,43 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univlorraine.sharepoint.com/sites/GreenFabLab/Documents partages/Catalina/Articles/02-Comparison/Compatibilizer-art/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="11_D479D44B254BC9FA9E0C016D3DE0518CD8B4447B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0B919B3-E849-411D-A4E0-D748C2598480}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="102_{F44F180C-E0B5-434D-8037-54C5A0AE66C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6257D96-8B3F-4EF5-9AFC-1A8BEE8CC452}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table_1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table1" sheetId="1" r:id="rId1"/>
     <sheet name="Table2" sheetId="2" r:id="rId2"/>
+    <sheet name="Acronyms" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="75">
   <si>
     <t>Parameters</t>
   </si>
@@ -175,13 +165,100 @@
   </si>
   <si>
     <t>Morphology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acronym </t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>ethylene-acrylic acid copolymer</t>
+  </si>
+  <si>
+    <t>E-AA</t>
+  </si>
+  <si>
+    <t>glycidyl methacrylate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ethylene-propylene diene monomer rubber</t>
+  </si>
+  <si>
+    <t>High density poly(ethylene)</t>
+  </si>
+  <si>
+    <t>High impact poly(styrene)</t>
+  </si>
+  <si>
+    <t>low-density poly(ethylene)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> maleic anhydride</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> poly(ethylene)</t>
+  </si>
+  <si>
+    <t>poly(ethylene terephthalate)</t>
+  </si>
+  <si>
+    <t>poly(propylene)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stryrene-ethylene/butylene-stryrene block copolimer </t>
+  </si>
+  <si>
+    <t>styrene-ethylene/butylene-styrene block copolymergraft- maleic anhydride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plastic solid waste </t>
+  </si>
+  <si>
+    <t>recycle poly(ethylene terephthalate)</t>
+  </si>
+  <si>
+    <t>EPDM</t>
+  </si>
+  <si>
+    <t>GMA</t>
+  </si>
+  <si>
+    <t>HDPE</t>
+  </si>
+  <si>
+    <t>HIPS</t>
+  </si>
+  <si>
+    <t>LDPE</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>PET</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>PSW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEBS  </t>
+  </si>
+  <si>
+    <t>SEBS-g-MA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +277,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -297,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -341,15 +426,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,10 +719,10 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -772,7 +858,7 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
@@ -802,14 +888,14 @@
         <v>37</v>
       </c>
       <c r="I1" s="8"/>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8"/>
@@ -822,15 +908,15 @@
       <c r="I2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="16"/>
       <c r="L2" s="9"/>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="15"/>
+      <c r="N2" s="16"/>
       <c r="O2" s="9" t="s">
         <v>45</v>
       </c>
@@ -885,7 +971,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="16"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="11" t="s">
         <v>28</v>
       </c>
@@ -900,16 +986,16 @@
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="11" t="s">
         <v>28</v>
       </c>
@@ -924,20 +1010,20 @@
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15">
         <v>1</v>
       </c>
-      <c r="I6" s="16"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -1504,16 +1590,143 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07868E2-4375-4EAF-A6B9-906A2210BB57}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005CB2146C3A12A3478CE262F5137CAFD9" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3c193eaf4fdabb0fbc527e1f70677cf4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b79a6669-b227-46e2-bb5e-ef86048fd7bf" xmlns:ns3="285d3045-d79e-49b1-b2d5-4808ae63567a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d8a7d51b6712f9bef7fc1c791c2ad763" ns2:_="" ns3:_="">
     <xsd:import namespace="b79a6669-b227-46e2-bb5e-ef86048fd7bf"/>
@@ -1742,15 +1955,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB1373D2-DA67-4212-B6A6-96F83F4FEF3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB7F27CB-B136-4BA7-9D8F-2499FF9DCCC1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1767,4 +1981,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB1373D2-DA67-4212-B6A6-96F83F4FEF3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Tables/Tables.xlsx
+++ b/Tables/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univlorraine.sharepoint.com/sites/GreenFabLab/Documents partages/Catalina/Articles/02-Comparison/Compatibilizer-art/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="102_{F44F180C-E0B5-434D-8037-54C5A0AE66C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6257D96-8B3F-4EF5-9AFC-1A8BEE8CC452}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{B673B360-82E2-4EF1-A0AF-0140786D01F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>Parameters</t>
   </si>
@@ -252,6 +252,57 @@
   </si>
   <si>
     <t>SEBS-g-MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code </t>
+  </si>
+  <si>
+    <t>I-W/O-1</t>
+  </si>
+  <si>
+    <t>I-W/O-5</t>
+  </si>
+  <si>
+    <t>I-W/O</t>
+  </si>
+  <si>
+    <t>I-1650-1</t>
+  </si>
+  <si>
+    <t>I-1650</t>
+  </si>
+  <si>
+    <t>I-1650-5</t>
+  </si>
+  <si>
+    <t>I-1652-1</t>
+  </si>
+  <si>
+    <t>I-1652</t>
+  </si>
+  <si>
+    <t>I-1652-5</t>
+  </si>
+  <si>
+    <t>I-1010-1</t>
+  </si>
+  <si>
+    <t>I-1010</t>
+  </si>
+  <si>
+    <t>I-1010-5</t>
+  </si>
+  <si>
+    <t>P-W/O</t>
+  </si>
+  <si>
+    <t>P-1650</t>
+  </si>
+  <si>
+    <t>P-1652</t>
+  </si>
+  <si>
+    <t>P-1010</t>
   </si>
 </sst>
 </file>
@@ -382,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -429,13 +480,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,50 +909,52 @@
   <dimension ref="B1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="17"/>
+      <c r="G1" s="18"/>
       <c r="H1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="16" t="s">
+      <c r="I1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="8"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -908,21 +964,21 @@
       <c r="I2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="16"/>
+      <c r="K2" s="17"/>
       <c r="L2" s="9"/>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="16"/>
+      <c r="N2" s="17"/>
       <c r="O2" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="8"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
         <v>18</v>
@@ -962,10 +1018,10 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -986,10 +1042,10 @@
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -1010,10 +1066,10 @@
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15" t="s">
@@ -1034,10 +1090,10 @@
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
@@ -1060,10 +1116,10 @@
       <c r="O7" s="11"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12" t="s">
@@ -1084,10 +1140,12 @@
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
@@ -1108,10 +1166,12 @@
       <c r="O9" s="11"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12" t="s">
@@ -1142,10 +1202,12 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
@@ -1166,10 +1228,12 @@
       <c r="O11" s="11"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12" t="s">
         <v>31</v>
@@ -1192,10 +1256,12 @@
       <c r="O12" s="11"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="s">
         <v>31</v>
@@ -1228,10 +1294,12 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12" t="s">
         <v>31</v>
@@ -1254,10 +1322,12 @@
       <c r="O14" s="11"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12" t="s">
         <v>32</v>
@@ -1280,10 +1350,12 @@
       <c r="O15" s="11"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12" t="s">
         <v>32</v>
@@ -1316,10 +1388,12 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12" t="s">
         <v>32</v>
@@ -1342,10 +1416,12 @@
       <c r="O17" s="11"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="12"/>
       <c r="D18" s="12" t="s">
         <v>33</v>
       </c>
@@ -1368,10 +1444,12 @@
       <c r="O18" s="11"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="12"/>
       <c r="D19" s="12" t="s">
         <v>33</v>
       </c>
@@ -1404,10 +1482,12 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="12"/>
       <c r="D20" s="12" t="s">
         <v>33</v>
       </c>
@@ -1430,10 +1510,12 @@
       <c r="O20" s="11"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -1466,10 +1548,12 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12" t="s">
         <v>31</v>
@@ -1504,10 +1588,12 @@
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12" t="s">
         <v>32</v>
@@ -1542,10 +1628,12 @@
       </c>
     </row>
     <row r="24" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
         <v>33</v>
       </c>
@@ -1580,13 +1668,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="J1:O1"/>
+  <mergeCells count="5">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="I1:O1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1609,7 +1699,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>49</v>
       </c>
       <c r="B2" t="s">
@@ -1617,7 +1707,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B3" t="s">
@@ -1625,7 +1715,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>64</v>
       </c>
       <c r="B4" t="s">
@@ -1633,7 +1723,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B5" t="s">
@@ -1641,7 +1731,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B6" t="s">
@@ -1649,7 +1739,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>67</v>
       </c>
       <c r="B7" t="s">
@@ -1657,7 +1747,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>68</v>
       </c>
       <c r="B8" t="s">
@@ -1665,7 +1755,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>69</v>
       </c>
       <c r="B9" t="s">
@@ -1673,7 +1763,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>70</v>
       </c>
       <c r="B10" t="s">
@@ -1681,7 +1771,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>71</v>
       </c>
       <c r="B11" t="s">
@@ -1689,7 +1779,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>72</v>
       </c>
       <c r="B12" t="s">
@@ -1697,7 +1787,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B13" t="s">
@@ -1705,7 +1795,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>73</v>
       </c>
       <c r="B14" t="s">
@@ -1713,7 +1803,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>74</v>
       </c>
       <c r="B15" t="s">
@@ -1727,6 +1817,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005CB2146C3A12A3478CE262F5137CAFD9" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3c193eaf4fdabb0fbc527e1f70677cf4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b79a6669-b227-46e2-bb5e-ef86048fd7bf" xmlns:ns3="285d3045-d79e-49b1-b2d5-4808ae63567a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d8a7d51b6712f9bef7fc1c791c2ad763" ns2:_="" ns3:_="">
     <xsd:import namespace="b79a6669-b227-46e2-bb5e-ef86048fd7bf"/>
@@ -1955,16 +2054,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB1373D2-DA67-4212-B6A6-96F83F4FEF3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB7F27CB-B136-4BA7-9D8F-2499FF9DCCC1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1981,12 +2079,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB1373D2-DA67-4212-B6A6-96F83F4FEF3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Tables/Tables.xlsx
+++ b/Tables/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univlorraine.sharepoint.com/sites/GreenFabLab/Documents partages/Catalina/Articles/02-Comparison/Compatibilizer-art/Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suescung1\Universite de Lorraine\Green FabLab - Catalina\Articles\02-Comparison\Compatibilizer-art\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="14_{B673B360-82E2-4EF1-A0AF-0140786D01F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -481,15 +481,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -908,7 +908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{579EA695-A3A1-47BC-A70D-E1CCD896EC1C}">
   <dimension ref="B1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
@@ -926,35 +926,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="18"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
     </row>
     <row r="2" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="19"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -964,21 +964,21 @@
       <c r="I2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="17"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="9"/>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="17"/>
+      <c r="N2" s="21"/>
       <c r="O2" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="19"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
         <v>18</v>
@@ -1018,7 +1018,7 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="10" t="s">
         <v>27</v>
       </c>
@@ -1042,7 +1042,7 @@
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="20"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="15" t="s">
         <v>29</v>
       </c>
@@ -1066,7 +1066,7 @@
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="15" t="s">
         <v>29</v>
       </c>
@@ -1090,7 +1090,7 @@
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="12" t="s">
         <v>29</v>
       </c>
@@ -1116,7 +1116,7 @@
       <c r="O7" s="11"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="20"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="12" t="s">
         <v>29</v>
       </c>
@@ -1140,7 +1140,7 @@
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>76</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -1166,7 +1166,7 @@
       <c r="O9" s="11"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -1202,7 +1202,7 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -1228,7 +1228,7 @@
       <c r="O11" s="11"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>79</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -1256,7 +1256,7 @@
       <c r="O12" s="11"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>80</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -1294,7 +1294,7 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -1322,7 +1322,7 @@
       <c r="O14" s="11"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -1350,7 +1350,7 @@
       <c r="O15" s="11"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>83</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -1388,7 +1388,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -1416,7 +1416,7 @@
       <c r="O17" s="11"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>85</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -1444,7 +1444,7 @@
       <c r="O18" s="11"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>86</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -1482,7 +1482,7 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>87</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -1510,7 +1510,7 @@
       <c r="O20" s="11"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>88</v>
       </c>
       <c r="C21" s="12" t="s">
@@ -1548,7 +1548,7 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>89</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -1588,7 +1588,7 @@
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>90</v>
       </c>
       <c r="C23" s="12" t="s">
@@ -1628,7 +1628,7 @@
       </c>
     </row>
     <row r="24" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="19" t="s">
         <v>91</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -1684,7 +1684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07868E2-4375-4EAF-A6B9-906A2210BB57}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -1817,15 +1817,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005CB2146C3A12A3478CE262F5137CAFD9" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3c193eaf4fdabb0fbc527e1f70677cf4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b79a6669-b227-46e2-bb5e-ef86048fd7bf" xmlns:ns3="285d3045-d79e-49b1-b2d5-4808ae63567a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d8a7d51b6712f9bef7fc1c791c2ad763" ns2:_="" ns3:_="">
     <xsd:import namespace="b79a6669-b227-46e2-bb5e-ef86048fd7bf"/>
@@ -2054,15 +2045,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB1373D2-DA67-4212-B6A6-96F83F4FEF3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB7F27CB-B136-4BA7-9D8F-2499FF9DCCC1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2079,4 +2071,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB1373D2-DA67-4212-B6A6-96F83F4FEF3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Tables/Tables.xlsx
+++ b/Tables/Tables.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suescung1\Universite de Lorraine\Green FabLab - Catalina\Articles\02-Comparison\Compatibilizer-art\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univlorraine.sharepoint.com/sites/GreenFabLab/Documents partages/Catalina/Articles/02-Comparison/Compatibilizer-art/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{B673B360-82E2-4EF1-A0AF-0140786D01F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{A032EC61-DA58-4EB0-AFBA-F65E1D26B5E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table1" sheetId="1" r:id="rId1"/>
-    <sheet name="Table2" sheetId="2" r:id="rId2"/>
-    <sheet name="Acronyms" sheetId="3" r:id="rId3"/>
+    <sheet name="Acronyms" sheetId="3" r:id="rId1"/>
+    <sheet name="Table1" sheetId="1" r:id="rId2"/>
+    <sheet name="Table2" sheetId="2" r:id="rId3"/>
+    <sheet name="Table3" sheetId="5" r:id="rId4"/>
+    <sheet name="Table4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="155">
   <si>
     <t>Parameters</t>
   </si>
@@ -254,42 +256,27 @@
     <t>SEBS-g-MA</t>
   </si>
   <si>
-    <t xml:space="preserve">Code </t>
-  </si>
-  <si>
     <t>I-W/O-1</t>
   </si>
   <si>
     <t>I-W/O-5</t>
   </si>
   <si>
-    <t>I-W/O</t>
-  </si>
-  <si>
     <t>I-1650-1</t>
   </si>
   <si>
-    <t>I-1650</t>
-  </si>
-  <si>
     <t>I-1650-5</t>
   </si>
   <si>
     <t>I-1652-1</t>
   </si>
   <si>
-    <t>I-1652</t>
-  </si>
-  <si>
     <t>I-1652-5</t>
   </si>
   <si>
     <t>I-1010-1</t>
   </si>
   <si>
-    <t>I-1010</t>
-  </si>
-  <si>
     <t>I-1010-5</t>
   </si>
   <si>
@@ -303,13 +290,237 @@
   </si>
   <si>
     <t>P-1010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toughness </t>
+  </si>
+  <si>
+    <t>I-W/O-2</t>
+  </si>
+  <si>
+    <t>I-1650-2</t>
+  </si>
+  <si>
+    <t>I-1652-2</t>
+  </si>
+  <si>
+    <t>I-1010-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tensil Strength </t>
+  </si>
+  <si>
+    <t>σ [Mpa]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Young's Modulus </t>
+  </si>
+  <si>
+    <t>E  [Gpa]</t>
+  </si>
+  <si>
+    <t>[J/m^3]</t>
+  </si>
+  <si>
+    <t>51,3±5,1</t>
+  </si>
+  <si>
+    <t>47±0,8</t>
+  </si>
+  <si>
+    <t>49,1±8,3</t>
+  </si>
+  <si>
+    <t>42,8±5,1</t>
+  </si>
+  <si>
+    <t>28,2±2,8</t>
+  </si>
+  <si>
+    <t>49,6±0,9</t>
+  </si>
+  <si>
+    <t>37,2±12,8</t>
+  </si>
+  <si>
+    <t>43,4±2,5</t>
+  </si>
+  <si>
+    <t>38,3±1,4</t>
+  </si>
+  <si>
+    <t>35,7±0,6</t>
+  </si>
+  <si>
+    <t>23,3±6,1</t>
+  </si>
+  <si>
+    <t>12,9±5,6</t>
+  </si>
+  <si>
+    <t>38,1±3,1</t>
+  </si>
+  <si>
+    <t>25,3±2,6</t>
+  </si>
+  <si>
+    <t>24,6±1,7</t>
+  </si>
+  <si>
+    <t>29,8±2,1</t>
+  </si>
+  <si>
+    <t>2,6±78,5</t>
+  </si>
+  <si>
+    <t>2,4±184,1</t>
+  </si>
+  <si>
+    <t>2,4±56,4</t>
+  </si>
+  <si>
+    <t>2,0±156,8</t>
+  </si>
+  <si>
+    <t>1,8±90,4</t>
+  </si>
+  <si>
+    <t>1,7±85,2</t>
+  </si>
+  <si>
+    <t>2,2±43,4</t>
+  </si>
+  <si>
+    <t>1,9±154,2</t>
+  </si>
+  <si>
+    <t>2,1±158,8</t>
+  </si>
+  <si>
+    <t>1,8±49,8</t>
+  </si>
+  <si>
+    <t>1,8±42,1</t>
+  </si>
+  <si>
+    <t>1,7±27,3</t>
+  </si>
+  <si>
+    <t>2,1±435,8</t>
+  </si>
+  <si>
+    <t>1,5±171,6</t>
+  </si>
+  <si>
+    <t>1,8±244,7</t>
+  </si>
+  <si>
+    <t>1,6±174,5</t>
+  </si>
+  <si>
+    <t>1,2±1,2</t>
+  </si>
+  <si>
+    <t>0,9±0,1</t>
+  </si>
+  <si>
+    <t>5,3±4,5</t>
+  </si>
+  <si>
+    <t>2,7±1,3</t>
+  </si>
+  <si>
+    <t>0,4±0,1</t>
+  </si>
+  <si>
+    <t>1,1±1,2</t>
+  </si>
+  <si>
+    <t>9,4±5,5</t>
+  </si>
+  <si>
+    <t>2,4±1,7</t>
+  </si>
+  <si>
+    <t>13,1±8,2</t>
+  </si>
+  <si>
+    <t>17±9,2</t>
+  </si>
+  <si>
+    <t>4,5±0,7</t>
+  </si>
+  <si>
+    <t>0,1±0,05</t>
+  </si>
+  <si>
+    <t>0,1±0,02</t>
+  </si>
+  <si>
+    <t>0,2±0,04</t>
+  </si>
+  <si>
+    <t>0,3±0,06</t>
+  </si>
+  <si>
+    <r>
+      <t>19,8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9,2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Impact Strength </t>
+  </si>
+  <si>
+    <t>[KJ/m^2]</t>
+  </si>
+  <si>
+    <t>0,8±0,2</t>
+  </si>
+  <si>
+    <t>1,5±0,6</t>
+  </si>
+  <si>
+    <t>0,9±0,3</t>
+  </si>
+  <si>
+    <t>1,0±0,5</t>
+  </si>
+  <si>
+    <t>1,1±0,4</t>
+  </si>
+  <si>
+    <t>0,7±0,1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +548,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -352,7 +569,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -429,11 +646,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -488,7 +738,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,6 +1037,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07868E2-4375-4EAF-A6B9-906A2210BB57}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -904,16 +1308,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{579EA695-A3A1-47BC-A70D-E1CCD896EC1C}">
   <dimension ref="B1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
@@ -927,31 +1332,31 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="17" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
     </row>
     <row r="2" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="17"/>
@@ -964,15 +1369,15 @@
       <c r="I2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="21"/>
+      <c r="K2" s="22"/>
       <c r="L2" s="9"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="21"/>
+      <c r="N2" s="22"/>
       <c r="O2" s="9" t="s">
         <v>45</v>
       </c>
@@ -1103,9 +1508,7 @@
       <c r="H7" s="12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="I7" s="12"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -1141,7 +1544,7 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>30</v>
@@ -1167,7 +1570,7 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>30</v>
@@ -1203,7 +1606,7 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>30</v>
@@ -1229,7 +1632,7 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>30</v>
@@ -1257,7 +1660,7 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="18" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>30</v>
@@ -1295,7 +1698,7 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>30</v>
@@ -1323,7 +1726,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>30</v>
@@ -1351,7 +1754,7 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="18" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>30</v>
@@ -1389,7 +1792,7 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>30</v>
@@ -1417,7 +1820,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>30</v>
@@ -1445,7 +1848,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="18" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>30</v>
@@ -1483,7 +1886,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>30</v>
@@ -1511,7 +1914,7 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>30</v>
@@ -1549,7 +1952,7 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>30</v>
@@ -1589,7 +1992,7 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>30</v>
@@ -1629,7 +2032,7 @@
     </row>
     <row r="24" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>30</v>
@@ -1680,139 +2083,324 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07868E2-4375-4EAF-A6B9-906A2210BB57}">
-  <dimension ref="A1:B15"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763C208E-AAC8-4684-9205-EEA2D985641D}">
+  <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" t="s">
-        <v>60</v>
+    <row r="1" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="25"/>
+      <c r="C2" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66C69AF-452F-4AA9-9746-8AD0B033C1B9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
